--- a/DB/Tablas de aprendizaje de movimientos/Humanos.xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Humanos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\RETOCAR Tablas de movimientos - copia\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Desktop\convertidas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" firstSheet="10" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="9" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Ootori" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="84">
   <si>
     <t>Movimiento</t>
   </si>
@@ -288,12 +288,18 @@
   </si>
   <si>
     <t>Aullido</t>
+  </si>
+  <si>
+    <t>Levitón</t>
+  </si>
+  <si>
+    <t>Púas tóxicas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,13 +646,13 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -662,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -670,7 +676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -678,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -697,16 +703,16 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -722,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -730,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -738,15 +744,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -754,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -762,7 +768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -770,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -787,17 +793,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -805,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -813,7 +819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -821,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -829,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -837,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -845,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -853,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -861,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -882,13 +888,13 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -896,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -904,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -912,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -920,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -928,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -936,7 +942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -944,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -952,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -970,16 +976,16 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -995,7 +1001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1003,15 +1009,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1019,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -1043,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -1064,13 +1070,13 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1094,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1118,7 +1124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1134,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1153,15 +1159,15 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1185,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1201,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>65</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -1243,16 +1249,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -1268,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1284,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1308,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1334,16 +1340,16 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>68</v>
       </c>
@@ -1359,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -1375,15 +1381,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1391,7 +1397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -1407,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1428,13 +1434,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>75</v>
       </c>
@@ -1458,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1466,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -1474,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1490,7 +1496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1498,7 +1504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1519,9 +1525,9 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1529,7 +1535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1545,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -1553,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -1561,7 +1567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>78</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>72</v>
       </c>
@@ -1577,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
@@ -1606,13 +1612,13 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1636,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1665,13 +1671,13 @@
       <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1687,7 +1693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1695,7 +1701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1711,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1719,7 +1725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1727,7 +1733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -1756,13 +1762,13 @@
       <selection activeCell="A9" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1778,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1794,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -1802,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1810,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1818,7 +1824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1826,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1847,13 +1853,13 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1893,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1909,7 +1915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1938,13 +1944,13 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1968,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1976,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1992,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2000,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2008,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2029,9 +2035,9 @@
       <selection activeCell="A9" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +2045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -2047,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2055,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2063,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2087,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2095,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2116,13 +2122,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2130,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -2138,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2154,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2162,7 +2168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2170,7 +2176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -2178,7 +2184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2186,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -2207,13 +2213,13 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2221,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>

--- a/DB/Tablas de aprendizaje de movimientos/Humanos.xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Humanos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Desktop\convertidas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxikr\source\repos\monster-Feudal\DB\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="9" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7155" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Ootori" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1059,6 +1059,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
